--- a/feature_list.xlsx
+++ b/feature_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>initial play</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,14 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nums of users last day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nums of users last 7 day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nums of users last month</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,11 +32,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nums of new users last 7 day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nums of new users last month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial plays of the all of songs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average plays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plays with time decay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last k days average plays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums of users last k day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitting error with N order polynomial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitting parameters with N order polynomial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trend of the curve of last k day, include:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums of new users last k day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average times play the song by user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find the popular people, and rate of playing the song</t>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>song</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>play list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中排第几</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>artist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>song</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>play list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中排第几</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +309,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,9 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,58 +652,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="51.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="29.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="39.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="32.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/feature_list.xlsx
+++ b/feature_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>initial play</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,78 @@
   </si>
   <si>
     <t>artist_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的平均播放、下载、收藏量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对song有行为的天数所占比例</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +746,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,122 +763,104 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
